--- a/outputs-HGR-r202/test-g__CAG-353_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-353_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="27">
   <si>
     <t>Row</t>
   </si>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -125,14 +125,50 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,275 +187,275 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.2591089106219577</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.76958862334451261</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.63064843470889187</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.2130288751369047</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.58232450978965744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.1416662459255598</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.0211669964976497</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.76351749550507364</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.74474099773206426</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.97225023792195664</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.72719953982875118</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.1780946490355273</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.78927200538351805</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.68524069468210413</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.83150974979921521</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.66038858707405979</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>1.1349131961421559</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1.2843023351137663</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1.2814771998226497</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.308379608895228</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.71540685255352443</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-0.15431479402118065</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-0.55197715686269611</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.52712928886984933</v>
       </c>
       <c r="C25">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__CAG-353_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-353_split_pruned.xlsx
@@ -14,23 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>even_MAG-GUT22420.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT23613.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT23890.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT24211.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT45607.fa</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
   </si>
   <si>
     <t>even_MAG-GUT77900.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT77956.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT78295.fa</t>
@@ -115,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,50 +113,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,7 +130,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -187,277 +139,233 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>26</v>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.2591089106219577</v>
+        <v>0.63064843470889187</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.76958862334451261</v>
+        <v>0.58232450978965744</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.63064843470889187</v>
+        <v>1.1416662459255598</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.2130288751369047</v>
+        <v>1.0211669964976497</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.58232450978965744</v>
+        <v>0.76351749550507364</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.1416662459255598</v>
+        <v>0.74474099773206426</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0211669964976497</v>
+        <v>0.97225023792195664</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.76351749550507364</v>
+        <v>0.72719953982875118</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.74474099773206426</v>
+        <v>1.1780946490355273</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.97225023792195664</v>
+        <v>0.78927200538351805</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.72719953982875118</v>
+        <v>0.68524069468210413</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.1780946490355273</v>
+        <v>0.83150974979921521</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.78927200538351805</v>
+        <v>0.66038858707405979</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.68524069468210413</v>
+        <v>1.1349131961421559</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.83150974979921521</v>
+        <v>1.2814771998226497</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.66038858707405979</v>
+        <v>1.308379608895228</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.1349131961421559</v>
+        <v>0.71540685255352443</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.2843023351137663</v>
+        <v>-0.15431479402118065</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.2814771998226497</v>
+        <v>-0.55197715686269611</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.308379608895228</v>
+        <v>0.52712928886984933</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.71540685255352443</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>-0.15431479402118065</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>-0.55197715686269611</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.52712928886984933</v>
-      </c>
-      <c r="C25">
         <v>1</v>
       </c>
     </row>
